--- a/documents/Query results/Basic_queries_SIMPLIFIED.xlsx
+++ b/documents/Query results/Basic_queries_SIMPLIFIED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70104B-6A61-0F42-A352-ED6E7AFB0251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1558426-059D-8944-B836-9144DC6394DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27640" yWindow="16100" windowWidth="41340" windowHeight="24940" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
@@ -128,21 +128,9 @@
     <t>Standard deviation </t>
   </si>
   <si>
-    <t>MySQL 5.1.41 indexed</t>
-  </si>
-  <si>
-    <t>MariaDB 10.5.6 indexed</t>
-  </si>
-  <si>
     <t>Query with defined key, invoice prices for customerId 0</t>
   </si>
   <si>
-    <t>233446.25643912132</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
     <t>2419.674046230194</t>
   </si>
   <si>
@@ -237,6 +225,12 @@
   </si>
   <si>
     <t>Neo4J 4.1.3 CALL2 indexed, previousinvoice</t>
+  </si>
+  <si>
+    <t>65871.34995398227</t>
+  </si>
+  <si>
+    <t>5.407402333838309</t>
   </si>
 </sst>
 </file>
@@ -631,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,25 +650,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1084,25 +1078,25 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
         <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1118,25 +1112,25 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1546,30 +1540,30 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1580,25 +1574,25 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1609,13 +1603,13 @@
         <v>3546460</v>
       </c>
       <c r="C49">
-        <v>3537729</v>
+        <v>3537655</v>
       </c>
       <c r="D49">
         <v>42</v>
       </c>
       <c r="E49">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F49">
         <v>54</v>
@@ -1638,13 +1632,13 @@
         <v>7071879</v>
       </c>
       <c r="C50">
-        <v>4615243</v>
+        <v>3807921</v>
       </c>
       <c r="D50">
         <v>56</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F50">
         <v>214</v>
@@ -1666,14 +1660,14 @@
       <c r="B53" s="3">
         <v>3555773</v>
       </c>
-      <c r="C53" s="3">
-        <v>3539058</v>
+      <c r="C53">
+        <v>3543231</v>
       </c>
       <c r="D53" s="3">
         <v>42</v>
       </c>
-      <c r="E53" s="3">
-        <v>42</v>
+      <c r="E53">
+        <v>25</v>
       </c>
       <c r="F53" s="2">
         <v>54</v>
@@ -1695,14 +1689,14 @@
       <c r="B54" s="3">
         <v>3557020</v>
       </c>
-      <c r="C54" s="3">
-        <v>3541197</v>
+      <c r="C54">
+        <v>3547278</v>
       </c>
       <c r="D54" s="3">
         <v>42</v>
       </c>
-      <c r="E54" s="3">
-        <v>42</v>
+      <c r="E54">
+        <v>25</v>
       </c>
       <c r="F54" s="3">
         <v>54</v>
@@ -1724,14 +1718,14 @@
       <c r="B55" s="3">
         <v>3731068</v>
       </c>
-      <c r="C55" s="3">
-        <v>3554961</v>
+      <c r="C55">
+        <v>3554355</v>
       </c>
       <c r="D55" s="3">
         <v>42</v>
       </c>
-      <c r="E55" s="3">
-        <v>42</v>
+      <c r="E55">
+        <v>27</v>
       </c>
       <c r="F55" s="3">
         <v>58</v>
@@ -1753,14 +1747,14 @@
       <c r="B56" s="3">
         <v>3826603</v>
       </c>
-      <c r="C56" s="3">
-        <v>3575400</v>
+      <c r="C56">
+        <v>3556549</v>
       </c>
       <c r="D56" s="3">
         <v>42</v>
       </c>
-      <c r="E56" s="3">
-        <v>42</v>
+      <c r="E56">
+        <v>27</v>
       </c>
       <c r="F56" s="3">
         <v>62</v>
@@ -1782,14 +1776,14 @@
       <c r="B57" s="3">
         <v>3846190</v>
       </c>
-      <c r="C57" s="3">
-        <v>3599339</v>
+      <c r="C57">
+        <v>3563745</v>
       </c>
       <c r="D57" s="3">
         <v>42</v>
       </c>
-      <c r="E57" s="3">
-        <v>42</v>
+      <c r="E57">
+        <v>28</v>
       </c>
       <c r="F57" s="3">
         <v>63</v>
@@ -1811,14 +1805,14 @@
       <c r="B58" s="3">
         <v>3860709</v>
       </c>
-      <c r="C58" s="3">
-        <v>3664983</v>
+      <c r="C58">
+        <v>3578619</v>
       </c>
       <c r="D58" s="3">
         <v>42</v>
       </c>
-      <c r="E58" s="3">
-        <v>42</v>
+      <c r="E58">
+        <v>28</v>
       </c>
       <c r="F58" s="3">
         <v>66</v>
@@ -1840,14 +1834,14 @@
       <c r="B59" s="3">
         <v>3883208</v>
       </c>
-      <c r="C59" s="3">
-        <v>3702277</v>
+      <c r="C59">
+        <v>3671717</v>
       </c>
       <c r="D59" s="3">
         <v>43</v>
       </c>
-      <c r="E59" s="3">
-        <v>42</v>
+      <c r="E59">
+        <v>29</v>
       </c>
       <c r="F59" s="3">
         <v>66</v>
@@ -1869,14 +1863,14 @@
       <c r="B60" s="3">
         <v>4170996</v>
       </c>
-      <c r="C60" s="3">
-        <v>3729130</v>
+      <c r="C60">
+        <v>3672794</v>
       </c>
       <c r="D60" s="3">
         <v>43</v>
       </c>
-      <c r="E60" s="3">
-        <v>42</v>
+      <c r="E60">
+        <v>36</v>
       </c>
       <c r="F60" s="3">
         <v>67</v>
@@ -1898,14 +1892,14 @@
       <c r="B61" s="3">
         <v>4181960</v>
       </c>
-      <c r="C61" s="3">
-        <v>4111351</v>
+      <c r="C61">
+        <v>3696650</v>
       </c>
       <c r="D61" s="3">
         <v>43</v>
       </c>
-      <c r="E61" s="3">
-        <v>42</v>
+      <c r="E61">
+        <v>39</v>
       </c>
       <c r="F61" s="3">
         <v>73</v>
@@ -1927,14 +1921,14 @@
       <c r="B62" s="3">
         <v>5524660</v>
       </c>
-      <c r="C62" s="3">
-        <v>4231090</v>
+      <c r="C62">
+        <v>3713250</v>
       </c>
       <c r="D62" s="3">
         <v>43</v>
       </c>
-      <c r="E62" s="3">
-        <v>45</v>
+      <c r="E62">
+        <v>40</v>
       </c>
       <c r="F62" s="3">
         <v>79</v>
@@ -1956,14 +1950,14 @@
       <c r="B64" s="2">
         <v>4013818</v>
       </c>
-      <c r="C64" s="2">
-        <v>3724878</v>
+      <c r="C64">
+        <v>3609818</v>
       </c>
       <c r="D64" s="3">
         <v>42</v>
       </c>
-      <c r="E64" s="3">
-        <v>42</v>
+      <c r="E64">
+        <v>30</v>
       </c>
       <c r="F64" s="1">
         <v>64</v>
@@ -1983,9 +1977,7 @@
         <v>18</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -1993,9 +1985,7 @@
         <v>21</v>
       </c>
       <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2003,28 +1993,28 @@
         <v>20</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2046,25 +2036,25 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I72" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2461,28 +2451,28 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" t="s">
         <v>37</v>
       </c>
-      <c r="E91" t="s">
-        <v>63</v>
-      </c>
-      <c r="F91" t="s">
-        <v>41</v>
-      </c>
       <c r="G91" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H91" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I91" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Query results/Basic_queries_SIMPLIFIED.xlsx
+++ b/documents/Query results/Basic_queries_SIMPLIFIED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1558426-059D-8944-B836-9144DC6394DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96026AFA-6195-4746-A8A9-9287AE22633C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27640" yWindow="16100" windowWidth="41340" windowHeight="24940" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
@@ -116,15 +116,6 @@
     <t>Neo4J 4.1.3 CALL</t>
   </si>
   <si>
-    <t>23.84973794405297</t>
-  </si>
-  <si>
-    <t>24.162160499425543</t>
-  </si>
-  <si>
-    <t>1.5362291495737217</t>
-  </si>
-  <si>
     <t>Standard deviation </t>
   </si>
   <si>
@@ -182,21 +173,9 @@
     <t>Neo4J 4.1.3 indexed, previousinvoice</t>
   </si>
   <si>
-    <t>32.66634353581679</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL indexed, previousinvoice</t>
   </si>
   <si>
-    <t>6.985699678629192</t>
-  </si>
-  <si>
-    <t>1468.303701554961</t>
-  </si>
-  <si>
-    <t>3.8999999999999995</t>
-  </si>
-  <si>
     <t>23.388031127053</t>
   </si>
   <si>
@@ -215,9 +194,6 @@
     <t>885.5695342546513</t>
   </si>
   <si>
-    <t>62.464389855340784</t>
-  </si>
-  <si>
     <t>18.59058901702687</t>
   </si>
   <si>
@@ -231,6 +207,30 @@
   </si>
   <si>
     <t>5.407402333838309</t>
+  </si>
+  <si>
+    <t>7.354590403278758</t>
+  </si>
+  <si>
+    <t>2.3748684174075834</t>
+  </si>
+  <si>
+    <t>1797.5589114129195</t>
+  </si>
+  <si>
+    <t>396.4522795999539</t>
+  </si>
+  <si>
+    <t>1.661324772583615</t>
+  </si>
+  <si>
+    <t>1.5524174696260025</t>
+  </si>
+  <si>
+    <t>1294.7186914538615</t>
+  </si>
+  <si>
+    <t>161.2341154966901</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="108" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,25 +650,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -688,16 +688,16 @@
         <v>190</v>
       </c>
       <c r="F4">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -717,16 +717,16 @@
         <v>272</v>
       </c>
       <c r="F5">
-        <v>596</v>
+        <v>160</v>
       </c>
       <c r="G5">
-        <v>1513</v>
+        <v>238</v>
       </c>
       <c r="H5">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="I5">
-        <v>382</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -746,16 +746,16 @@
         <v>192</v>
       </c>
       <c r="F7" s="1">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="G7">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="H7">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I7">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -775,16 +775,16 @@
         <v>193</v>
       </c>
       <c r="F8" s="1">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="G8">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="H8">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="I8">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -804,16 +804,16 @@
         <v>194</v>
       </c>
       <c r="F9" s="1">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="G9">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="H9">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="I9">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -833,16 +833,16 @@
         <v>195</v>
       </c>
       <c r="F10" s="1">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="G10">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="H10">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="I10">
-        <v>224</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -862,16 +862,16 @@
         <v>198</v>
       </c>
       <c r="F11" s="1">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="G11">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="H11">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="I11">
-        <v>224</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -891,16 +891,16 @@
         <v>201</v>
       </c>
       <c r="F12" s="1">
-        <v>398</v>
+        <v>145</v>
       </c>
       <c r="G12">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="H12">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="I12">
-        <v>229</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -920,16 +920,16 @@
         <v>202</v>
       </c>
       <c r="F13" s="1">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="G13">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="H13">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="I13">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -949,16 +949,16 @@
         <v>202</v>
       </c>
       <c r="F14" s="1">
-        <v>428</v>
+        <v>145</v>
       </c>
       <c r="G14">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="H14">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="I14">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -978,16 +978,16 @@
         <v>227</v>
       </c>
       <c r="F15" s="1">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="G15">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="H15">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="I15">
-        <v>237</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1007,16 +1007,16 @@
         <v>237</v>
       </c>
       <c r="F16" s="1">
-        <v>475</v>
+        <v>147</v>
       </c>
       <c r="G16">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="H16">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="I16">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1036,16 +1036,16 @@
         <v>204</v>
       </c>
       <c r="F18" s="1">
-        <v>381</v>
+        <v>144</v>
       </c>
       <c r="G18" s="1">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="H18" s="1">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="I18" s="1">
-        <v>228</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1054,11 +1054,11 @@
       </c>
       <c r="B19" s="4">
         <f>(B18-F18)/F18</f>
-        <v>6.2992125984251968E-2</v>
+        <v>1.8125</v>
       </c>
       <c r="D19" s="6">
         <f>(F18-D18)/F18</f>
-        <v>0.45144356955380577</v>
+        <v>-0.4513888888888889</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1078,25 +1078,25 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,25 +1112,25 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1150,16 +1150,16 @@
         <v>2188</v>
       </c>
       <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="G26">
-        <v>9</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
       <c r="I26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1179,16 +1179,16 @@
         <v>2230</v>
       </c>
       <c r="F27">
-        <v>9750</v>
+        <v>9639</v>
       </c>
       <c r="G27">
-        <v>10632</v>
+        <v>9734</v>
       </c>
       <c r="H27">
-        <v>250</v>
+        <v>3094</v>
       </c>
       <c r="I27">
-        <v>250</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1208,16 +1208,16 @@
         <v>2188</v>
       </c>
       <c r="F29" s="3">
-        <v>9647</v>
+        <v>5527</v>
       </c>
       <c r="G29">
-        <v>5595</v>
+        <v>5603</v>
       </c>
       <c r="H29">
-        <v>246</v>
+        <v>1785</v>
       </c>
       <c r="I29">
-        <v>226</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,16 +1237,16 @@
         <v>2190</v>
       </c>
       <c r="F30" s="3">
-        <v>9670</v>
+        <v>5579</v>
       </c>
       <c r="G30">
-        <v>5623</v>
+        <v>5614</v>
       </c>
       <c r="H30">
-        <v>246</v>
+        <v>1786</v>
       </c>
       <c r="I30">
-        <v>227</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1266,16 +1266,16 @@
         <v>2190</v>
       </c>
       <c r="F31" s="3">
-        <v>9680</v>
+        <v>5580</v>
       </c>
       <c r="G31">
-        <v>5644</v>
+        <v>5625</v>
       </c>
       <c r="H31">
-        <v>247</v>
+        <v>1787</v>
       </c>
       <c r="I31">
-        <v>228</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1295,16 +1295,16 @@
         <v>2191</v>
       </c>
       <c r="F32" s="3">
-        <v>9681</v>
+        <v>6156</v>
       </c>
       <c r="G32">
-        <v>5661</v>
+        <v>7911</v>
       </c>
       <c r="H32">
-        <v>247</v>
+        <v>1787</v>
       </c>
       <c r="I32">
-        <v>229</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1324,16 +1324,16 @@
         <v>2191</v>
       </c>
       <c r="F33" s="3">
-        <v>9682</v>
+        <v>6407</v>
       </c>
       <c r="G33">
-        <v>6900</v>
+        <v>9593</v>
       </c>
       <c r="H33">
-        <v>248</v>
+        <v>1790</v>
       </c>
       <c r="I33">
-        <v>231</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,16 +1353,16 @@
         <v>2192</v>
       </c>
       <c r="F34" s="3">
-        <v>9688</v>
+        <v>6454</v>
       </c>
       <c r="G34">
-        <v>6955</v>
+        <v>9595</v>
       </c>
       <c r="H34">
-        <v>249</v>
+        <v>1790</v>
       </c>
       <c r="I34">
-        <v>231</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1382,16 +1382,16 @@
         <v>2193</v>
       </c>
       <c r="F35" s="3">
-        <v>9694</v>
+        <v>7279</v>
       </c>
       <c r="G35">
-        <v>7836</v>
+        <v>9624</v>
       </c>
       <c r="H35">
-        <v>249</v>
+        <v>1790</v>
       </c>
       <c r="I35">
-        <v>232</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,16 +1411,16 @@
         <v>2196</v>
       </c>
       <c r="F36" s="3">
-        <v>9696</v>
+        <v>8026</v>
       </c>
       <c r="G36">
-        <v>8684</v>
+        <v>9625</v>
       </c>
       <c r="H36">
-        <v>250</v>
+        <v>1798</v>
       </c>
       <c r="I36">
-        <v>234</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1440,16 +1440,16 @@
         <v>2196</v>
       </c>
       <c r="F37" s="3">
-        <v>9712</v>
+        <v>8184</v>
       </c>
       <c r="G37">
-        <v>8943</v>
+        <v>9634</v>
       </c>
       <c r="H37">
-        <v>250</v>
+        <v>1964</v>
       </c>
       <c r="I37">
-        <v>236</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1469,16 +1469,16 @@
         <v>2207</v>
       </c>
       <c r="F38" s="3">
-        <v>9743</v>
+        <v>9609</v>
       </c>
       <c r="G38">
-        <v>9637</v>
+        <v>9680</v>
       </c>
       <c r="H38">
-        <v>250</v>
+        <v>2317</v>
       </c>
       <c r="I38">
-        <v>239</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -1498,16 +1498,16 @@
         <v>2193</v>
       </c>
       <c r="F40" s="1">
-        <v>9689</v>
+        <v>6880</v>
       </c>
       <c r="G40" s="1">
-        <v>7147</v>
+        <v>8250</v>
       </c>
       <c r="H40" s="1">
-        <v>248</v>
+        <v>1859</v>
       </c>
       <c r="I40" s="1">
-        <v>231</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1516,11 +1516,11 @@
       </c>
       <c r="B41" s="6">
         <f>(F40-B40)/B40</f>
-        <v>0.9565831987075929</v>
+        <v>0.38933764135702748</v>
       </c>
       <c r="D41" s="7">
         <f>(F40-D40)/F40</f>
-        <v>0.77324801321085768</v>
+        <v>0.68066860465116275</v>
       </c>
       <c r="F41" s="7"/>
     </row>
@@ -1540,30 +1540,30 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H43" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -1574,25 +1574,25 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1993,28 +1993,28 @@
         <v>20</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2036,25 +2036,25 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -2451,28 +2451,28 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I91" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Query results/Basic_queries_SIMPLIFIED.xlsx
+++ b/documents/Query results/Basic_queries_SIMPLIFIED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96026AFA-6195-4746-A8A9-9287AE22633C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B914E503-1A20-8B42-89C4-AF61BC5DBF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="16100" windowWidth="41340" windowHeight="24940" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="37820" yWindow="15120" windowWidth="41340" windowHeight="24940" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -134,24 +134,12 @@
     <t>0.4898979485566356</t>
   </si>
   <si>
-    <t>7.507329751649383</t>
-  </si>
-  <si>
-    <t>147029.5167529636</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL 2</t>
   </si>
   <si>
-    <t>30889.343387161858</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL2</t>
   </si>
   <si>
-    <t>48.05247132042222</t>
-  </si>
-  <si>
     <t>MySQL 5.1.41 indexed, previousinvoice</t>
   </si>
   <si>
@@ -176,18 +164,9 @@
     <t>Neo4J 4.1.3 CALL indexed, previousinvoice</t>
   </si>
   <si>
-    <t>23.388031127053</t>
-  </si>
-  <si>
-    <t>68581.45091611872</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL 2 indexed, previousinvoice</t>
   </si>
   <si>
-    <t>2191.059296322215</t>
-  </si>
-  <si>
     <t>1801.4307091864512</t>
   </si>
   <si>
@@ -197,9 +176,6 @@
     <t>18.59058901702687</t>
   </si>
   <si>
-    <t>1.8681541692269403</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL2 indexed, previousinvoice</t>
   </si>
   <si>
@@ -231,6 +207,30 @@
   </si>
   <si>
     <t>161.2341154966901</t>
+  </si>
+  <si>
+    <t>12929.714320509947</t>
+  </si>
+  <si>
+    <t>59489.12043928705</t>
+  </si>
+  <si>
+    <t>8.95600357302296</t>
+  </si>
+  <si>
+    <t>7.133722730804723</t>
+  </si>
+  <si>
+    <t>5517.321756069697</t>
+  </si>
+  <si>
+    <t>3805.3698847812416</t>
+  </si>
+  <si>
+    <t>14.094325099131211</t>
+  </si>
+  <si>
+    <t>0.9433981132056604</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,25 +650,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1078,25 +1078,25 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1112,25 +1112,25 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1540,25 +1540,25 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -1574,25 +1574,25 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
         <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -1612,16 +1612,16 @@
         <v>25</v>
       </c>
       <c r="F49">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -1641,16 +1641,16 @@
         <v>131</v>
       </c>
       <c r="F50">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="G50">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="H50">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="I50">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1670,16 +1670,16 @@
         <v>25</v>
       </c>
       <c r="F53" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H53">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I53">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -1699,16 +1699,16 @@
         <v>25</v>
       </c>
       <c r="F54" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H54">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="I54">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -1728,16 +1728,16 @@
         <v>27</v>
       </c>
       <c r="F55" s="3">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>46</v>
+      </c>
+      <c r="H55">
         <v>58</v>
       </c>
-      <c r="G55">
-        <v>62</v>
-      </c>
-      <c r="H55">
-        <v>109</v>
-      </c>
       <c r="I55">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -1757,16 +1757,16 @@
         <v>27</v>
       </c>
       <c r="F56" s="3">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G56">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H56">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I56">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -1786,16 +1786,16 @@
         <v>28</v>
       </c>
       <c r="F57" s="3">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G57">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H57">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I57">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -1815,16 +1815,16 @@
         <v>28</v>
       </c>
       <c r="F58" s="3">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G58">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="I58">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -1844,16 +1844,16 @@
         <v>29</v>
       </c>
       <c r="F59" s="3">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G59">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H59">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="I59">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -1873,16 +1873,16 @@
         <v>36</v>
       </c>
       <c r="F60" s="3">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G60">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="H60">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="I60">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -1902,16 +1902,16 @@
         <v>39</v>
       </c>
       <c r="F61" s="3">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G61">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="H61">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="I61">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -1931,16 +1931,16 @@
         <v>40</v>
       </c>
       <c r="F62" s="3">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G62">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="H62">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="I62">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -1960,16 +1960,16 @@
         <v>30</v>
       </c>
       <c r="F64" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G64">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H64" s="1">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="I64" s="1">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -1996,25 +1996,25 @@
         <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2036,25 +2036,25 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2074,16 +2074,16 @@
         <v>3063</v>
       </c>
       <c r="F73">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G73">
         <v>8</v>
       </c>
       <c r="H73">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="I73">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2103,16 +2103,16 @@
         <v>5338</v>
       </c>
       <c r="F74">
-        <v>1443706</v>
+        <v>762722</v>
       </c>
       <c r="G74">
-        <v>4802475</v>
+        <v>992359</v>
       </c>
       <c r="H74">
-        <v>343849</v>
+        <v>235858</v>
       </c>
       <c r="I74">
-        <v>275082</v>
+        <v>585182</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2132,16 +2132,16 @@
         <v>3071</v>
       </c>
       <c r="F76">
-        <v>820078</v>
+        <v>740349</v>
       </c>
       <c r="G76">
-        <v>745941</v>
+        <v>935767</v>
       </c>
       <c r="H76">
-        <v>241107</v>
+        <v>221588</v>
       </c>
       <c r="I76">
-        <v>265428</v>
+        <v>230629</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2161,16 +2161,16 @@
         <v>3076</v>
       </c>
       <c r="F77">
-        <v>912323</v>
+        <v>749485</v>
       </c>
       <c r="G77">
-        <v>765946</v>
+        <v>940914</v>
       </c>
       <c r="H77">
-        <v>254523</v>
+        <v>223377</v>
       </c>
       <c r="I77">
-        <v>267356</v>
+        <v>241453</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2190,16 +2190,16 @@
         <v>3078</v>
       </c>
       <c r="F78">
-        <v>1096031</v>
+        <v>752311</v>
       </c>
       <c r="G78">
-        <v>798377</v>
+        <v>953909</v>
       </c>
       <c r="H78">
-        <v>280747</v>
+        <v>228991</v>
       </c>
       <c r="I78">
-        <v>267549</v>
+        <v>243067</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2219,16 +2219,16 @@
         <v>3117</v>
       </c>
       <c r="F79">
-        <v>1097515</v>
+        <v>753377</v>
       </c>
       <c r="G79">
-        <v>846715</v>
+        <v>955013</v>
       </c>
       <c r="H79">
-        <v>283070</v>
+        <v>229487</v>
       </c>
       <c r="I79">
-        <v>269481</v>
+        <v>260573</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2248,16 +2248,16 @@
         <v>3220</v>
       </c>
       <c r="F80">
-        <v>1140289</v>
+        <v>753564</v>
       </c>
       <c r="G80">
-        <v>873328</v>
+        <v>956098</v>
       </c>
       <c r="H80">
-        <v>285854</v>
+        <v>229852</v>
       </c>
       <c r="I80">
-        <v>269843</v>
+        <v>286919</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2277,16 +2277,16 @@
         <v>3507</v>
       </c>
       <c r="F81">
-        <v>1175028</v>
+        <v>754041</v>
       </c>
       <c r="G81">
-        <v>904869</v>
+        <v>956877</v>
       </c>
       <c r="H81">
-        <v>287317</v>
+        <v>230015</v>
       </c>
       <c r="I81">
-        <v>270333</v>
+        <v>303112</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -2306,16 +2306,16 @@
         <v>4059</v>
       </c>
       <c r="F82">
-        <v>1177520</v>
+        <v>754485</v>
       </c>
       <c r="G82">
-        <v>914743</v>
+        <v>957382</v>
       </c>
       <c r="H82">
-        <v>287918</v>
+        <v>230294</v>
       </c>
       <c r="I82">
-        <v>270743</v>
+        <v>341721</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2335,16 +2335,16 @@
         <v>4623</v>
       </c>
       <c r="F83">
-        <v>1265215</v>
+        <v>757233</v>
       </c>
       <c r="G83">
-        <v>917526</v>
+        <v>960602</v>
       </c>
       <c r="H83">
-        <v>299881</v>
+        <v>231058</v>
       </c>
       <c r="I83">
-        <v>270984</v>
+        <v>350218</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2364,16 +2364,16 @@
         <v>5318</v>
       </c>
       <c r="F84">
-        <v>1273129</v>
+        <v>760063</v>
       </c>
       <c r="G84">
-        <v>927726</v>
+        <v>974858</v>
       </c>
       <c r="H84">
-        <v>342728</v>
+        <v>232967</v>
       </c>
       <c r="I84">
-        <v>271609</v>
+        <v>352328</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2393,16 +2393,16 @@
         <v>5331</v>
       </c>
       <c r="F85">
-        <v>1296105</v>
+        <v>760964</v>
       </c>
       <c r="G85">
-        <v>951307</v>
+        <v>981837</v>
       </c>
       <c r="H85">
-        <v>343446</v>
+        <v>234939</v>
       </c>
       <c r="I85">
-        <v>273278</v>
+        <v>423634</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -2422,16 +2422,16 @@
         <v>3840</v>
       </c>
       <c r="F88">
-        <v>1125323</v>
+        <v>753587</v>
       </c>
       <c r="G88">
-        <v>864647</v>
+        <v>957325</v>
       </c>
       <c r="H88">
-        <v>290659</v>
+        <v>229256</v>
       </c>
       <c r="I88">
-        <v>269660</v>
+        <v>303365</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -2454,25 +2454,25 @@
         <v>29</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H91" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
